--- a/Files/Temp_alist_adm/_/_.xlsx
+++ b/Files/Temp_alist_adm/_/_.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
   <si>
     <t>Guia</t>
   </si>
@@ -279,12 +279,6 @@
     <t>CL 10 32 A 12</t>
   </si>
   <si>
-    <t>CR 19 A 90 12</t>
-  </si>
-  <si>
-    <t>CR 69 25 B 44 OFI 508</t>
-  </si>
-  <si>
     <t>CL 61 5 20</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>CR 8 15 43 PISO 13</t>
   </si>
   <si>
-    <t>CR 13 27 47 PISO 4</t>
-  </si>
-  <si>
     <t>ALEJANDRO  VALLEJO SEADE</t>
   </si>
   <si>
@@ -315,12 +306,6 @@
     <t>FELIPE AYERBE MUÑOZ</t>
   </si>
   <si>
-    <t>ALEJANDRO ALBAN</t>
-  </si>
-  <si>
-    <t>WILLIAM DARIO PARDO MORENO</t>
-  </si>
-  <si>
     <t>TATIANA GARCES</t>
   </si>
   <si>
@@ -339,9 +324,6 @@
     <t>DIEGO FERNANDO PRIETO RIVERA</t>
   </si>
   <si>
-    <t>ALVARO  JARAMILLO</t>
-  </si>
-  <si>
     <t>TIPO ENVIO</t>
   </si>
   <si>
@@ -456,7 +438,52 @@
     <t>LOGI</t>
   </si>
   <si>
-    <t>GLAP0001</t>
+    <t>CÉSAR AUGUSTO JARAMILLO RESTREPO</t>
+  </si>
+  <si>
+    <t>RUDOLF  HOMMES</t>
+  </si>
+  <si>
+    <t>OSCAR  SANTOS</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO RESTREPO</t>
+  </si>
+  <si>
+    <t>LEON DARÍO URIBE MESA</t>
+  </si>
+  <si>
+    <t>LUZ ADRIANA OSORIO</t>
+  </si>
+  <si>
+    <t>MÓNICA  LONDOÑO</t>
+  </si>
+  <si>
+    <t>CAMILO  ROMERO</t>
+  </si>
+  <si>
+    <t>DG 115 A 70 C 75 PISO 5 PRESIDENCIA CLÍNICA SHAIO</t>
+  </si>
+  <si>
+    <t>CR 17 119 A 09</t>
+  </si>
+  <si>
+    <t>CL 17 N 6 53</t>
+  </si>
+  <si>
+    <t>CR 11 B 98 08 OF 505</t>
+  </si>
+  <si>
+    <t>CR 10 86 13 APTO 801</t>
+  </si>
+  <si>
+    <t>KM 1 VIA OCAÑA AGUACHICA CESAR</t>
+  </si>
+  <si>
+    <t>AV ENIDA CR 45 103 60 EDIFICIO DIREC TR PISO 8</t>
+  </si>
+  <si>
+    <t>AV CR 45 103 60 EDIFICIO DIREC TR PISO 8</t>
   </si>
 </sst>
 </file>
@@ -631,7 +658,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -639,6 +666,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -759,56 +816,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1142,11 +1149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,10 +1195,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>5</v>
@@ -1200,43 +1207,43 @@
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="U1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1259,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1277,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1311,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1329,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1363,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1381,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1415,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -1433,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S5" s="3">
         <v>0</v>
@@ -1467,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -1485,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
@@ -1519,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -1537,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
@@ -1571,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -1589,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -1623,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -1641,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -1675,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -1693,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1727,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
@@ -1745,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
@@ -1779,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -1797,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1831,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -1849,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
@@ -1883,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -1901,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1935,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -1953,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1987,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -2005,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S16" s="3">
         <v>0</v>
@@ -2039,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2057,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -2091,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -2109,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -2143,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -2161,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S19" s="3">
         <v>0</v>
@@ -2195,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -2213,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -2247,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -2265,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -2299,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
@@ -2317,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -2351,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
@@ -2369,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -2403,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -2421,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -2455,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -2473,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S25" s="3">
         <v>0</v>
@@ -2501,19 +2508,19 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="J26" s="3">
         <v>312685412</v>
@@ -2534,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -2568,19 +2575,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J27" s="3">
         <v>310546987</v>
@@ -2601,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -2635,19 +2642,19 @@
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="J28" s="3">
         <v>300452362</v>
@@ -2668,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -2702,19 +2709,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J29" s="3">
         <v>320412214</v>
@@ -2735,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2769,22 +2776,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J30" s="3">
-        <v>301956332</v>
+        <v>320412214</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -2802,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
@@ -2836,22 +2843,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J31" s="3">
-        <v>302778899</v>
+        <v>320412214</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -2869,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S31" s="3">
         <v>0</v>
@@ -2903,19 +2910,19 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J32" s="3">
         <v>304623212</v>
@@ -2936,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2970,19 +2977,19 @@
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J33" s="3">
         <v>315452325</v>
@@ -3003,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -3037,19 +3044,19 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J34" s="3">
         <v>300656332</v>
@@ -3070,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S34" s="3">
         <v>0</v>
@@ -3104,19 +3111,19 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="J35" s="3">
         <v>320421305</v>
@@ -3137,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -3171,19 +3178,19 @@
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J36" s="3">
         <v>300500213</v>
@@ -3204,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S36" s="3">
         <v>0</v>
@@ -3238,19 +3245,19 @@
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J37" s="3">
         <v>310963258</v>
@@ -3271,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S37" s="3">
         <v>0</v>
@@ -3293,10 +3300,10 @@
     </row>
     <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>2005325446</v>
+        <v>2005325445</v>
       </c>
       <c r="B38" s="3">
-        <v>302159001</v>
+        <v>302159000</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -3305,22 +3312,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J38" s="3">
-        <v>300412500</v>
+        <v>310963258</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -3338,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S38" s="3">
         <v>0</v>
@@ -3366,7 +3373,7 @@
         <v>302159002</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -3378,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="3"/>
@@ -3398,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S39" s="3">
         <v>0</v>
@@ -3420,7 +3427,7 @@
         <v>302159003</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D40" s="3">
         <v>2</v>
@@ -3432,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H40" s="5"/>
       <c r="K40" s="3">
@@ -3451,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S40" s="3">
         <v>0</v>
@@ -3473,7 +3480,7 @@
         <v>302159004</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D41" s="3">
         <v>3</v>
@@ -3485,9 +3492,9 @@
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="H41" s="3"/>
       <c r="K41" s="3">
         <v>1</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3526,7 +3533,7 @@
         <v>302159005</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -3538,9 +3545,9 @@
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="H42" s="3"/>
       <c r="K42" s="3">
         <v>1</v>
       </c>
@@ -3557,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3573,13 +3580,13 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>2005325451</v>
+        <v>2005325450</v>
       </c>
       <c r="B43" s="3">
-        <v>302159006</v>
+        <v>302159005</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -3591,8 +3598,9 @@
         <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H43" s="3"/>
       <c r="K43" s="3">
         <v>1</v>
       </c>
@@ -3609,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3625,26 +3633,27 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>2005325452</v>
+        <v>2005325450</v>
       </c>
       <c r="B44" s="3">
-        <v>302159007</v>
+        <v>302159005</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H44" s="3"/>
       <c r="K44" s="3">
         <v>1</v>
       </c>
@@ -3661,14 +3670,14 @@
         <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
       <c r="U44" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" s="3">
         <f t="shared" si="3"/>
@@ -3683,7 +3692,7 @@
         <v>302159008</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -3695,8 +3704,9 @@
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H45" s="3"/>
       <c r="K45" s="3">
         <v>1</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3735,7 +3745,7 @@
         <v>302159009</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
@@ -3747,8 +3757,9 @@
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H46" s="3"/>
       <c r="K46" s="3">
         <v>1</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3787,7 +3798,7 @@
         <v>302159010</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
@@ -3799,8 +3810,9 @@
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="K47" s="3">
         <v>1</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3839,7 +3851,7 @@
         <v>302159011</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -3851,8 +3863,9 @@
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H48" s="3"/>
       <c r="K48" s="3">
         <v>1</v>
       </c>
@@ -3869,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3891,7 +3904,7 @@
         <v>302159012</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -3903,8 +3916,9 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H49" s="3"/>
       <c r="K49" s="3">
         <v>1</v>
       </c>
@@ -3921,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3943,7 +3957,7 @@
         <v>302159013</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -3955,8 +3969,9 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H50" s="3"/>
       <c r="K50" s="3">
         <v>1</v>
       </c>
@@ -3973,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S50" s="3">
         <v>0</v>
@@ -3995,7 +4010,7 @@
         <v>302159014</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -4007,8 +4022,9 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H51" s="3"/>
       <c r="K51" s="3">
         <v>1</v>
       </c>
@@ -4025,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S51" s="3">
         <v>0</v>
@@ -4047,7 +4063,7 @@
         <v>302159015</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
@@ -4059,8 +4075,9 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H52" s="3"/>
       <c r="K52" s="3">
         <v>1</v>
       </c>
@@ -4077,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4111,8 +4128,9 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H53" s="3"/>
       <c r="K53" s="3">
         <v>1</v>
       </c>
@@ -4129,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S53" s="3">
         <v>0</v>
@@ -4163,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K54" s="3">
         <v>1</v>
@@ -4181,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -4215,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K55" s="3">
         <v>1</v>
@@ -4233,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S55" s="3">
         <v>0</v>
@@ -4267,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K56" s="3">
         <v>1</v>
@@ -4285,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S56" s="3">
         <v>0</v>
@@ -4319,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
@@ -4337,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4371,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K58" s="3">
         <v>1</v>
@@ -4389,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4423,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K59" s="3">
         <v>1</v>
@@ -4441,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4468,14 +4486,23 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" t="s">
-        <v>29</v>
+      <c r="E60" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="3">
+        <v>315952014</v>
       </c>
       <c r="K60" s="3">
         <v>1</v>
@@ -4493,14 +4520,14 @@
         <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
       <c r="U60" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V60" s="3">
         <f t="shared" si="3"/>
@@ -4520,14 +4547,23 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" t="s">
-        <v>29</v>
+      <c r="E61" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J61" s="3">
+        <v>315746952</v>
       </c>
       <c r="K61" s="3">
         <v>1</v>
@@ -4545,14 +4581,14 @@
         <v>0</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V61" s="3">
         <f t="shared" si="3"/>
@@ -4572,14 +4608,23 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" t="s">
-        <v>29</v>
+      <c r="E62" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J62" s="3">
+        <v>300852165</v>
       </c>
       <c r="K62" s="3">
         <v>1</v>
@@ -4597,14 +4642,14 @@
         <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="U62" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <f t="shared" si="3"/>
@@ -4619,19 +4664,28 @@
         <v>302159026</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" t="s">
-        <v>31</v>
+      <c r="E63" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J63" s="3">
+        <v>302654872</v>
       </c>
       <c r="K63" s="3">
         <v>1</v>
@@ -4649,14 +4703,14 @@
         <v>0</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S63" s="3">
         <v>0</v>
       </c>
       <c r="U63" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V63" s="3">
         <f t="shared" si="3"/>
@@ -4676,14 +4730,23 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>31</v>
+      <c r="E64" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J64" s="3">
+        <v>302654872</v>
       </c>
       <c r="K64" s="3">
         <v>1</v>
@@ -4701,14 +4764,14 @@
         <v>0</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S64" s="3">
         <v>0</v>
       </c>
       <c r="U64" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V64" s="3">
         <f t="shared" si="3"/>
@@ -4723,19 +4786,28 @@
         <v>302159026</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" t="s">
-        <v>31</v>
+      <c r="E65" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J65" s="3">
+        <v>302654872</v>
       </c>
       <c r="K65" s="3">
         <v>1</v>
@@ -4753,14 +4825,14 @@
         <v>0</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S65" s="3">
         <v>0</v>
       </c>
       <c r="U65" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V65" s="3">
         <f t="shared" si="3"/>
@@ -4780,14 +4852,23 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
-        <v>31</v>
+      <c r="E66" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J66" s="3">
+        <v>316803001</v>
       </c>
       <c r="K66" s="3">
         <v>1</v>
@@ -4805,17 +4886,17 @@
         <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <f t="shared" ref="U66:U75" si="4">VLOOKUP(E66,T_OPERADORES,2,FALSE)</f>
-        <v>2</v>
+        <f t="shared" ref="U66:U73" si="4">VLOOKUP(E66,T_OPERADORES,2,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="V66" s="3">
-        <f t="shared" ref="V66:V75" si="5">VLOOKUP(G66,T_TIPO_ENVIO,2,FALSE)</f>
+        <f t="shared" ref="V66:V73" si="5">VLOOKUP(G66,T_TIPO_ENVIO,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -4832,14 +4913,23 @@
       <c r="D67">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
-        <v>31</v>
+      <c r="E67" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J67" s="3">
+        <v>320464331</v>
       </c>
       <c r="K67" s="3">
         <v>1</v>
@@ -4857,14 +4947,14 @@
         <v>0</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S67" s="3">
         <v>0</v>
       </c>
       <c r="U67" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V67" s="3">
         <f t="shared" si="5"/>
@@ -4879,19 +4969,28 @@
         <v>302159031</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
-        <v>29</v>
+      <c r="E68" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J68" s="3">
+        <v>321932510</v>
       </c>
       <c r="K68" s="3">
         <v>1</v>
@@ -4909,14 +5008,14 @@
         <v>0</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S68" s="3">
         <v>0</v>
       </c>
       <c r="U68" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V68" s="3">
         <f t="shared" si="5"/>
@@ -4936,14 +5035,23 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" t="s">
-        <v>29</v>
+      <c r="E69" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J69" s="3">
+        <v>300211548</v>
       </c>
       <c r="K69" s="3">
         <v>1</v>
@@ -4961,14 +5069,14 @@
         <v>0</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S69" s="3">
         <v>0</v>
       </c>
       <c r="U69" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V69" s="3">
         <f t="shared" si="5"/>
@@ -4995,8 +5103,9 @@
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H70" s="3"/>
       <c r="K70" s="3">
         <v>1</v>
       </c>
@@ -5013,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -5035,7 +5144,7 @@
         <v>302159034</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5047,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K71" s="3">
         <v>1</v>
@@ -5065,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S71" s="3">
         <v>0</v>
@@ -5087,7 +5196,7 @@
         <v>302159035</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5099,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K72" s="3">
         <v>1</v>
@@ -5117,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -5151,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K73" s="3">
         <v>1</v>
@@ -5169,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S73" s="3">
         <v>0</v>
@@ -5183,127 +5292,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3">
-        <v>302159037</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K74" s="3">
-        <v>1</v>
-      </c>
-      <c r="L74" s="3">
-        <v>0</v>
-      </c>
-      <c r="M74" s="3">
-        <v>0</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0</v>
-      </c>
-      <c r="O74" s="3">
-        <v>0</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S74" s="3">
-        <v>0</v>
-      </c>
-      <c r="U74" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="V74" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3">
-        <v>302159037</v>
-      </c>
-      <c r="C75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="U75" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="V75" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C38">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B75">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:C55">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C38 C64 C70 C75:C1048576 C53:C62">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C61">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
@@ -5335,17 +5338,17 @@
   <conditionalFormatting sqref="C71">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C38 C75:C1048576 C53:C71">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B2:B73">
+    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C74">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="C1:C38 C64 C70 C74:C1048576 C53:C62">
+    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C74">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="C1:C38 C74:C1048576 C53:C71">
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C74">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C72:C73">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5373,7 +5376,7 @@
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1" s="13"/>
     </row>
@@ -5385,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -5399,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -5415,7 +5418,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -5431,7 +5434,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>

--- a/Files/Temp_alist_adm/_/_.xlsx
+++ b/Files/Temp_alist_adm/_/_.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="120">
   <si>
     <t>Guia</t>
   </si>
@@ -1151,9 +1151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,6 +4519,12 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
+      <c r="P60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="R60" s="3" t="s">
         <v>83</v>
       </c>
@@ -4580,6 +4586,12 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
+      <c r="P61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="R61" s="3" t="s">
         <v>83</v>
       </c>
@@ -4641,6 +4653,12 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
+      <c r="P62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="R62" s="3" t="s">
         <v>83</v>
       </c>
@@ -4702,6 +4720,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
+      <c r="P63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="R63" s="3" t="s">
         <v>83</v>
       </c>
@@ -4734,7 +4758,7 @@
         <v>101</v>
       </c>
       <c r="F64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>77</v>
@@ -4762,6 +4786,12 @@
       </c>
       <c r="O64" s="3">
         <v>0</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>83</v>
@@ -4795,7 +4825,7 @@
         <v>101</v>
       </c>
       <c r="F65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>77</v>
@@ -4823,6 +4853,12 @@
       </c>
       <c r="O65" s="3">
         <v>0</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>83</v>
@@ -4856,7 +4892,7 @@
         <v>101</v>
       </c>
       <c r="F66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>77</v>
@@ -4884,6 +4920,12 @@
       </c>
       <c r="O66" s="3">
         <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>83</v>
@@ -4917,7 +4959,7 @@
         <v>101</v>
       </c>
       <c r="F67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>77</v>
@@ -4945,6 +4987,12 @@
       </c>
       <c r="O67" s="3">
         <v>0</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>83</v>
@@ -4978,7 +5026,7 @@
         <v>101</v>
       </c>
       <c r="F68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>77</v>
@@ -5006,6 +5054,12 @@
       </c>
       <c r="O68" s="3">
         <v>0</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>83</v>
@@ -5039,7 +5093,7 @@
         <v>101</v>
       </c>
       <c r="F69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>77</v>
@@ -5067,6 +5121,12 @@
       </c>
       <c r="O69" s="3">
         <v>0</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>83</v>
@@ -5361,7 +5421,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
